--- a/src/HanbaiKanri/HanbaiKanri/bin/BaseXls/SupplierList.xlsx
+++ b/src/HanbaiKanri/HanbaiKanri/bin/BaseXls/SupplierList.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KAOATO\source\repos\his_vb\src\HanbaiKanri\HanbaiKanri\bin\BaseXls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kasah\source\repos\his_vb\src\HanbaiKanri\HanbaiKanri\bin\BaseXls\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{610C829D-0DD9-4436-931E-37CD4B2BA9A6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,17 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>仕入先コード</t>
   </si>
@@ -107,24 +103,34 @@
   </si>
   <si>
     <t>更新日</t>
+  </si>
+  <si>
+    <t>国内区分</t>
+    <rPh sb="0" eb="2">
+      <t>コクナイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>クブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -132,7 +138,7 @@
     <font>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -193,7 +199,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -504,21 +510,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AA2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T15" sqref="T15"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5703125" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="3" width="10.5703125" style="1"/>
-    <col min="4" max="11" width="10.5703125" style="2"/>
-    <col min="12" max="16384" width="10.5703125" style="1"/>
+    <col min="1" max="3" width="10.625" style="1"/>
+    <col min="4" max="11" width="10.625" style="2"/>
+    <col min="12" max="16384" width="10.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="12.75" thickBot="1">
+    <row r="1" spans="1:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -592,13 +596,16 @@
         <v>23</v>
       </c>
       <c r="Y1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="AA1" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="12.75" thickTop="1">
+    <row r="2" spans="1:27" ht="16.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
